--- a/mbs-perturbation/chatty/svm/chatty-svm-sigmoid-results.xlsx
+++ b/mbs-perturbation/chatty/svm/chatty-svm-sigmoid-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8646739130434783</v>
+        <v>0.08206521739130436</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.627536231884058</v>
+        <v>0.2797101449275362</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5304347826086956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9652173913043478</v>
+        <v>0.1637681159420289</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7975724637681161</v>
+        <v>0.3051086956521739</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chatty/svm/chatty-svm-sigmoid-results.xlsx
+++ b/mbs-perturbation/chatty/svm/chatty-svm-sigmoid-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08206521739130436</v>
+        <v>0.5158653846153847</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.9495192307692307</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2797101449275362</v>
+        <v>0.4956521739130434</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9681159420289855</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1637681159420289</v>
+        <v>0.9681159420289855</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3051086956521739</v>
+        <v>0.7794537346711261</v>
       </c>
     </row>
   </sheetData>
